--- a/exercises/dennis/exercise_4/Lukas_subgrid_results/res_bus/vm_pu.xlsx
+++ b/exercises/dennis/exercise_4/Lukas_subgrid_results/res_bus/vm_pu.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.008643211470625</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.9903003630323883</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.007758510860267</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.9901004141569476</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.009158972998634</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.9904169399951762</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.006444828653797</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.9898008166256482</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.005953079818733</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.9896877030090883</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.009450826419733</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.9904828695235636</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.008310271607395</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.9902244780968011</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.008577094330789</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.9902849633295914</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.01246793553411</v>
+        <v>1.002581337169022</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.9911544271244239</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.012116900607203</v>
+        <v>1.00213326216442</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.99107693658106</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.009490207572888</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.9904909535155515</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.013973805321781</v>
+        <v>1.00452882903503</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.9914861383315384</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.010739059521793</v>
+        <v>1.000356180387793</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.9907704308705276</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.013549983627192</v>
+        <v>1.003970690469437</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.9913926529649398</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.0159073804329</v>
+        <v>1.007005821894166</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.991906745683</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.013430973813072</v>
+        <v>1.003833437747326</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.9913671906347689</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.013889274886421</v>
+        <v>1.004403150661619</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.9914669061382029</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.012338116454206</v>
+        <v>1.002418605593562</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.9911259189884895</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.00995967531554</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.9905963350680753</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.014332200595299</v>
+        <v>1.004974026755037</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.9915638831572464</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.013803018488373</v>
+        <v>1.004313609878504</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.9914489064424969</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.01690931942347</v>
+        <v>1.008319989359062</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.9921239740837912</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.01613388209653</v>
+        <v>1.00733555830515</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.991957263542051</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.013839524579498</v>
+        <v>1.004407957029503</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.9914589073606807</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.013691785417863</v>
+        <v>1.004221145473381</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.991426658505552</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.01534305690064</v>
+        <v>1.006369354122519</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.9917879794983524</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.014912925052823</v>
+        <v>1.005861417190617</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.9916963145682078</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.010536388090383</v>
+        <v>1.000254503819164</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.9907324595303579</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.006957089073101</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.989925223506264</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.015161359966441</v>
+        <v>1.006246338172965</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.9917529712211566</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.017649541854945</v>
+        <v>1.009462285414124</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.9922899813181344</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.018928963045474</v>
+        <v>1.011123448067554</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0.9925631687042308</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.018378803950993</v>
+        <v>1.010429198354728</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.9924466943343224</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.021691430307639</v>
+        <v>1.014703207846782</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.9931452138913535</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.02674743568418</v>
+        <v>1.021194050542756</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.9941818424166851</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.031470123004847</v>
+        <v>1.013278013520502</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.9807745090706851</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.032423867546043</v>
+        <v>1.014524997248685</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.9809612496729261</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.037975563943779</v>
+        <v>1.021725748970153</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.9820204035295416</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.04108190758317</v>
+        <v>1.02574498954299</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0.982592753279148</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.045607600105884</v>
+        <v>1.031615091199266</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0.983400281515234</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.050202354658536</v>
+        <v>1.024256514420994</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0.9702643928543951</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.053855812876767</v>
+        <v>1.029042431370544</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0.9708645302566624</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.061603029479225</v>
+        <v>1.039153345271712</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0.9720617285636052</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.058533922137968</v>
+        <v>1.035155254086543</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0.9715997958899525</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.062506722175218</v>
+        <v>1.04032759243469</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0.972194657096502</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.060724360476083</v>
+        <v>1.038020438131474</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0.971930919647375</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.065924546698245</v>
+        <v>1.044806749277709</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0.972683231995508</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.060872463756747</v>
+        <v>1.03822030064083</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0.9719528716930891</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.062503690076723</v>
+        <v>1.040347228355876</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0.9721936591793404</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.062676269812662</v>
+        <v>1.040592552736459</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0.9722183743293802</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.055764078393278</v>
+        <v>1.03156609653988</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0.971168581948089</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.057056201894107</v>
+        <v>1.033252097052436</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0.9713711818813401</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.055271270363901</v>
+        <v>1.030917931720185</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0.9710906255130966</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.053418411994059</v>
+        <v>1.028506785447694</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0.9707934622664481</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.051295614145925</v>
+        <v>1.025717695657539</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0.970446112502499</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.052553408383217</v>
+        <v>1.027354054854707</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0.9706530163214445</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.0481498045529</v>
+        <v>1.021589130632971</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.9699172672403836</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.047972088456469</v>
+        <v>1.021345981353699</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0.9698869319947082</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.045524727425982</v>
+        <v>1.018120467769235</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0.9694632998754067</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.042482466102121</v>
+        <v>1.01414522484412</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0.9689229318971586</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.042461414474366</v>
+        <v>1.027498290778668</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0.9828420643047669</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.037937550265512</v>
+        <v>1.021614482417157</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0.9820126204398874</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.04088383709643</v>
+        <v>1.02542912869739</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0.9825562567696157</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.03650138488578</v>
+        <v>1.019736068027333</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0.9817426392890926</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.031328604854731</v>
+        <v>1.013009176259738</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0.9807450476091708</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.026175854608427</v>
+        <v>1.006309381166901</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0.9797121955647631</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.021402631662486</v>
+        <v>1.00010646215814</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0.9787214514655183</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.017967361228786</v>
+        <v>1.009845061908863</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0.9923569507872129</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.007897037426974</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0.9901389656544166</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.00502674150122</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0.9894822190862699</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.000972372136064</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>0.9962595267516603</v>
+        <v>0.9819004003726139</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>0.9861472010403083</v>
+        <v>0.9840650745057781</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>0.9842914550972397</v>
+        <v>0.9817066259217663</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>0.9766086374739191</v>
+        <v>0.9719148363437243</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>1.010046127485257</v>
       </c>
       <c r="C76">
-        <v>0.9659320862641132</v>
+        <v>0.9744180603104556</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>1.008338222880516</v>
       </c>
       <c r="C77">
-        <v>0.9595654847210334</v>
+        <v>0.966412835234275</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>1.022012370039675</v>
       </c>
       <c r="C78">
-        <v>0.9509317536757179</v>
+        <v>0.9725648878835296</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>1.023082272022193</v>
       </c>
       <c r="C79">
-        <v>0.9548826630984063</v>
+        <v>0.9774442999350511</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>1.022067359901447</v>
       </c>
       <c r="C80">
-        <v>0.9511333468107068</v>
+        <v>0.9728144440887539</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>1.021693437200273</v>
       </c>
       <c r="C81">
-        <v>0.9497559582270143</v>
+        <v>0.9711324776950157</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>1.019983882643355</v>
       </c>
       <c r="C82">
-        <v>0.9435733146643368</v>
+        <v>0.9634843940020317</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>1.021259957732665</v>
       </c>
       <c r="C83">
-        <v>0.9481827023210622</v>
+        <v>0.9691714249467358</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>1.022983434091747</v>
       </c>
       <c r="C84">
-        <v>0.9545165083048851</v>
+        <v>0.9769895148797957</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>1.022870125756227</v>
       </c>
       <c r="C85">
-        <v>0.9541071302666856</v>
+        <v>0.9764556051326164</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>1.025079725884509</v>
       </c>
       <c r="C86">
-        <v>0.9624194858937652</v>
+        <v>0.9867044866115475</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>1.008103385026798</v>
       </c>
       <c r="C87">
-        <v>0.9587114783479617</v>
+        <v>0.9653120640765939</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>1.024944403920109</v>
       </c>
       <c r="C88">
-        <v>0.9619151672662435</v>
+        <v>0.9860512204180386</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>1.011805907744624</v>
       </c>
       <c r="C89">
-        <v>0.9726764585414263</v>
+        <v>0.98283241859005</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>1.011269372037275</v>
       </c>
       <c r="C90">
-        <v>0.9706128218357032</v>
+        <v>0.9802262321320389</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>1.013172890272512</v>
       </c>
       <c r="C91">
-        <v>0.9780414462680139</v>
+        <v>0.989516711048913</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>1.015189642127641</v>
       </c>
       <c r="C92">
-        <v>0.9861587728548231</v>
+        <v>0.999680819475802</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>1.00116213043675</v>
       </c>
       <c r="C93">
-        <v>0.9916088896627113</v>
+        <v>0.9908916792845492</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.000601630238058</v>
+        <v>1.001981058815563</v>
       </c>
       <c r="C94">
-        <v>0.995013454377112</v>
+        <v>0.9952040149834173</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,7 +1419,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.002010928402755</v>
+        <v>1.003227898935334</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.004438239333087</v>
+        <v>1.007165832996527</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.00814021829553</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0.9901872833033609</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.005184866398565</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0.9895113769522552</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.00833016754105</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0.9902302441293668</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.008311973487116</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0.9902253285700762</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.011576880562344</v>
+        <v>1.001447966599581</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0.9909576033552644</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.008048799186178</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0.9901652481915459</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.011118938619182</v>
+        <v>1.000862448949383</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0.9908559236972292</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.009888505963818</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0.9905811966357964</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.012333185588531</v>
+        <v>1.002412789588344</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0.9911248518535027</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.010238882550748</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0.9906586709382471</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.011114752275668</v>
+        <v>1.000842798169566</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0.9908543425116649</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.012878863580147</v>
+        <v>1.003126435842361</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0.9912458336804125</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.014430730488769</v>
+        <v>1.005112854943313</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0.9915859133144711</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.012467325216525</v>
+        <v>1.002586654078179</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0.9911545602093772</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.013666167046418</v>
+        <v>1.004117138934572</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0.9914180262543775</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.012168219581661</v>
+        <v>1.002186152729246</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0.9910877163074108</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.009779733437922</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0.9905557048035598</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.00932864939417</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0.9904543655561681</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.010495302800515</v>
+        <v>1.000044870275946</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0.9907160932451561</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.014463765807377</v>
+        <v>1.00514444146124</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0.9915926745841825</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.01259390897865</v>
+        <v>1.002746175944714</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0.9911823744016193</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.015514182227975</v>
+        <v>1.006504866209209</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0.9918217161672637</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.016583176039607</v>
+        <v>1.007913270627251</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0.9920542353577387</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.016467454697916</v>
+        <v>1.007763540523574</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0.9920292478978628</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.015153788937802</v>
+        <v>1.006085673349915</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0.9917452318133922</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.014875439555117</v>
+        <v>1.005749449336746</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0.9916855564242223</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.017332220693513</v>
+        <v>1.00893855851927</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0.9922176718091019</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.011781508473561</v>
+        <v>1.001816335478405</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0.991007707256031</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.013908135751979</v>
+        <v>1.004575331264774</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0.9914772549801028</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.009000694882171</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0.9903886820497413</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.013850840244706</v>
+        <v>1.00456544174006</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0.9914673763063778</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.014294419223123</v>
+        <v>1.005140900660304</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0.9915645601953306</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.016363107814866</v>
+        <v>1.007822238424248</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0.9920142398249662</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.018525011961041</v>
+        <v>1.010628424595971</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0.992478215725801</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.02011393352609</v>
+        <v>1.012677377956522</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0.9928147340139423</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.02737064035188</v>
+        <v>1.021996648370318</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0.9943072811232</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.027678964663972</v>
+        <v>1.008357320231809</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0.9800197272868832</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.036046518192494</v>
+        <v>1.019223754448642</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0.9816575910292976</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.0412586080565</v>
+        <v>1.02597870590356</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0.982624905509843</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.043564429431288</v>
+        <v>1.028976307908785</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0.9830396831062845</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.045668340336793</v>
+        <v>1.031689801566378</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0.9834108987594988</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.05325190328017</v>
+        <v>1.028248073270191</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0.9707669307514226</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.056338764358161</v>
+        <v>1.032278220821694</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0.9712596145344239</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.059147367126992</v>
+        <v>1.035955294001227</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0.971693425094868</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.059965551714422</v>
+        <v>1.037009330516048</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0.9718175405265935</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.063277485148042</v>
+        <v>1.041333321710629</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0.9723067904004622</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.063757349950533</v>
+        <v>1.04197151833037</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0.9723757628330129</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.060220079199457</v>
+        <v>1.037368816372647</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0.9718552750848776</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.064244159363156</v>
+        <v>1.042625945380106</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0.9724451131154959</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.061413709534903</v>
+        <v>1.038932293596231</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0.972033149044867</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.059400688330569</v>
+        <v>1.036308552489787</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0.9717314565259806</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.057568921312025</v>
+        <v>1.033926706304559</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0.9714506812931165</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.057628972405023</v>
+        <v>1.033991658617795</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0.971460199675362</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.056415588565346</v>
+        <v>1.032407442290746</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0.9712712292042404</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.056121265442798</v>
+        <v>1.032030130965566</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0.9712249052058027</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.052913712216326</v>
+        <v>1.027826718705382</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>0.9707117559894345</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.048594600661043</v>
+        <v>1.022176611775113</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>0.9699930354051227</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.049881474089516</v>
+        <v>1.023848073368387</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>0.9702105298808815</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.050916801197598</v>
+        <v>1.025194721634584</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0.9703835134814934</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.042952533766776</v>
+        <v>1.014765191955729</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0.9690074219663829</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.045662895338205</v>
+        <v>1.031653141721543</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0.983409912909145</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.040991434685781</v>
+        <v>1.012165874733689</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0.968652462569848</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.037448203082619</v>
+        <v>1.020995032663362</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0.9819212270416662</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.038303722987844</v>
+        <v>1.022075813722621</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0.9820807612194929</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.03515601232844</v>
+        <v>1.01797707209729</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0.9814868800334708</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1.035419629029604</v>
+        <v>1.018321315930084</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0.981537204870842</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2167,10 +2167,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1.029244726123737</v>
+        <v>1.010295734946996</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0.9803319068521036</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2178,10 +2178,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1.022939427001188</v>
+        <v>1.002115091419237</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>0.9790443096910834</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2189,10 +2189,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1.019076492441197</v>
+        <v>1.011255310540765</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0.9925924100864497</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2200,10 +2200,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.012167529408766</v>
+        <v>1.002383131238854</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0.9910962746439413</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.002510281294238</v>
+        <v>1</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0.9887996541593149</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.001031749474331</v>
+        <v>1.002342463715723</v>
       </c>
       <c r="C168">
-        <v>0.9964993076935198</v>
+        <v>0.9972169966476946</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2233,10 +2233,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>1.000008344693038</v>
       </c>
       <c r="C169">
-        <v>0.9868776481501979</v>
+        <v>0.9849791378417398</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>0.9815286790733895</v>
+        <v>0.97817945941176</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>1.0120984905647</v>
       </c>
       <c r="C171">
-        <v>0.9737968175920314</v>
+        <v>0.9842836526809829</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>1.010331560173334</v>
       </c>
       <c r="C172">
-        <v>0.967012456732866</v>
+        <v>0.975771829550434</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>1.009288364890023</v>
       </c>
       <c r="C173">
-        <v>0.9630819227842139</v>
+        <v>0.9708541019127478</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>1.007596083665427</v>
       </c>
       <c r="C174">
-        <v>0.9568363053084036</v>
+        <v>0.9630010786954905</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>1.022029788888483</v>
       </c>
       <c r="C175">
-        <v>0.9509968354876593</v>
+        <v>0.9726423131336851</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>1.021820066434342</v>
       </c>
       <c r="C176">
-        <v>0.9502222971271634</v>
+        <v>0.9717005469265674</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>1.021645851640865</v>
       </c>
       <c r="C177">
-        <v>0.9495861864064288</v>
+        <v>0.970912452443313</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>1.020223490532771</v>
       </c>
       <c r="C178">
-        <v>0.9444310627329108</v>
+        <v>0.9645492716733433</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>1.02242029025508</v>
       </c>
       <c r="C179">
-        <v>0.9524302558907614</v>
+        <v>0.9744202012072454</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>1.021430316919764</v>
       </c>
       <c r="C180">
-        <v>0.94880652272139</v>
+        <v>0.9699327107305403</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>1.022411665083048</v>
       </c>
       <c r="C181">
-        <v>0.9524067474493055</v>
+        <v>0.9743699884643725</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>1.024416658930499</v>
       </c>
       <c r="C182">
-        <v>0.9599027420600169</v>
+        <v>0.9835948933737628</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>1.025035574851594</v>
       </c>
       <c r="C183">
-        <v>0.9622560411494399</v>
+        <v>0.9864894124287528</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>1.010157754482309</v>
       </c>
       <c r="C184">
-        <v>0.9663694321018551</v>
+        <v>0.9749227485365324</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>1.010091342882176</v>
       </c>
       <c r="C185">
-        <v>0.9661239094560343</v>
+        <v>0.9745993486289088</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>1.011863149469036</v>
       </c>
       <c r="C186">
-        <v>0.9729074249306039</v>
+        <v>0.983094892733945</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,10 +2431,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>1.013890593138652</v>
       </c>
       <c r="C187">
-        <v>0.9808927713046744</v>
+        <v>0.9931066682688542</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2442,10 +2442,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>1.014640330223731</v>
       </c>
       <c r="C188">
-        <v>0.9839186191921168</v>
+        <v>0.9968816337943978</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2453,10 +2453,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>1.000114395070392</v>
       </c>
       <c r="C189">
-        <v>0.9873357591468755</v>
+        <v>0.9854585769667572</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>1.001141967748953</v>
       </c>
       <c r="C190">
-        <v>0.9915313915540334</v>
+        <v>0.9907732888081136</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.001603879778495</v>
+        <v>1.002866044936527</v>
       </c>
       <c r="C191">
-        <v>0.9987505011268337</v>
+        <v>0.9999585919292623</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.003439505177276</v>
+        <v>1.005922972167506</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.006934721848021</v>
+        <v>1.010324671659437</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.006369145792752</v>
+        <v>1</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>0.9897833516410457</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2519,10 +2519,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.006989454867385</v>
+        <v>1</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0.9899250768958666</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2530,10 +2530,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.005429934771706</v>
+        <v>1</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>0.9895678744458564</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2541,10 +2541,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.007181657821951</v>
+        <v>1</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>0.9899687818006432</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.008855150180126</v>
+        <v>1</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>0.990348243911361</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.010901733677828</v>
+        <v>1.000571900280709</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0.9908070165380317</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.008709453808167</v>
+        <v>1</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0.9903153621079432</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.009298251119429</v>
+        <v>1</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0.990447536744006</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2596,10 +2596,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.009906191227933</v>
+        <v>1</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>0.9905844811814403</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2607,10 +2607,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.008138854081618</v>
+        <v>1</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>0.9901856692061709</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2618,10 +2618,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.011796971316939</v>
+        <v>1.001723168638346</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>0.9910060996578622</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2629,10 +2629,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.013040386084571</v>
+        <v>1.003321468252989</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>0.9912808675338066</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2640,10 +2640,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.01456875643759</v>
+        <v>1.005290750111259</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>0.9916160613637333</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2651,10 +2651,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.00974675589171</v>
+        <v>1</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0.9905485147888068</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2662,10 +2662,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.0114021995238</v>
+        <v>1.001222859178336</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>0.9909187696267677</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2673,10 +2673,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.014028178594032</v>
+        <v>1.004585813534813</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>0.9914974990797079</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2684,10 +2684,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.014901873185532</v>
+        <v>1.005714986834312</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>0.9916885097877413</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2695,10 +2695,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.012043802063574</v>
+        <v>1.002042842288826</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0.9910609086809101</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2706,10 +2706,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.013049503225428</v>
+        <v>1.00334722707536</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>0.9912834813692637</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2717,10 +2717,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.018931847208072</v>
+        <v>1.010899248124899</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>0.9925556010290455</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2728,10 +2728,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.016180334794521</v>
+        <v>1.007357459042315</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>0.9919658091959046</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2739,10 +2739,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.015779704426051</v>
+        <v>1.006869185856822</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>0.9918801971131432</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2750,10 +2750,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.018639779470831</v>
+        <v>1.010560370162938</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0.9924948244750061</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2761,10 +2761,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.0175940703695</v>
+        <v>1.009237308533266</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>0.9922723613913237</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2772,10 +2772,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.014181142599131</v>
+        <v>1.004858865142488</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0.9915341622897471</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2783,10 +2783,10 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.012759462303829</v>
+        <v>1.003055280789184</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0.9912230858976523</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2794,10 +2794,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.0143551895198</v>
+        <v>1.00514685669236</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0.9915748517726037</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2805,10 +2805,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.011443213895073</v>
+        <v>1.001404354747562</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>0.9909336692121425</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2816,10 +2816,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.012216919912026</v>
+        <v>1.002441742165589</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0.9911069795160854</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2827,10 +2827,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>1.012732057098423</v>
+        <v>1.003122238379628</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>0.9912214576807475</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2838,10 +2838,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1.01304178841338</v>
+        <v>1.003533729339844</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0.9912902123758428</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2849,10 +2849,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1.016509708872243</v>
+        <v>1.00802813479206</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0.9920465011409617</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2860,10 +2860,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1.018749035730229</v>
+        <v>1.010913273827651</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0.992525721837928</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2871,10 +2871,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1.017523143482004</v>
+        <v>1.009340443460689</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>0.9922644464686144</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2882,10 +2882,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.027491075510893</v>
+        <v>1.022148268279357</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>0.9943313729636982</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2893,10 +2893,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.032250027888078</v>
+        <v>1.014287586501252</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>0.9809271290978586</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2904,10 +2904,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.036439004265928</v>
+        <v>1.019725040144348</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>0.9817317613008486</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2915,10 +2915,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1.038954611667233</v>
+        <v>1.022996567874127</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>0.9822024068276606</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2926,10 +2926,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.045248013670576</v>
+        <v>1.031144261220474</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>0.9833372751413062</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2937,10 +2937,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1.046717851920411</v>
+        <v>1.019701647478493</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>0.9696710625009289</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1.052428845343115</v>
+        <v>1.027163239904312</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>0.9706329238555526</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2959,10 +2959,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.055077143310811</v>
+        <v>1.030624504264193</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0.9710603088440849</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2970,10 +2970,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1.056874662897845</v>
+        <v>1.03298579437903</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0.9713433565250821</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2981,10 +2981,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1.063368573764677</v>
+        <v>1.041463263131494</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>0.9723196985512386</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2992,10 +2992,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.06180900038532</v>
+        <v>1.03941994250045</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0.9720921756732287</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3003,10 +3003,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>1.05957957175287</v>
+        <v>1.036525379025256</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0.9717588723646132</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>1.063010985653635</v>
+        <v>1.041015782152978</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0.9722674073331503</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>1.061483085498766</v>
+        <v>1.039023774390339</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>0.9720433959314589</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3036,10 +3036,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>1.06121299482728</v>
+        <v>1.038671469731301</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>0.972003370566888</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3047,10 +3047,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>1.059371765057117</v>
+        <v>1.036266930691249</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>0.9717271456106873</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3058,10 +3058,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>1.058596692844621</v>
+        <v>1.035273701746127</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0.9716087409485834</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3069,10 +3069,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1.055066446668797</v>
+        <v>1.03065389910545</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>0.9710580285375258</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3080,10 +3080,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1.058091822429179</v>
+        <v>1.034611693132762</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>0.9715313348632413</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3091,10 +3091,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1.054913662230856</v>
+        <v>1.030458671010816</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>0.9710336450889436</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3102,10 +3102,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>1.054132335804159</v>
+        <v>1.029421901296144</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>0.9709088195921122</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3113,10 +3113,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>1.052131778908192</v>
+        <v>1.026793307717194</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>0.970584068671724</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3124,10 +3124,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>1.048844071893029</v>
+        <v>1.022499912342389</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0.9700354147581494</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3135,10 +3135,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>1.046893925942103</v>
+        <v>1.019935489956395</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>0.9697015177638323</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3146,10 +3146,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>1.046211319200055</v>
+        <v>1.019039577465274</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>0.9695831400069924</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3157,10 +3157,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1.043139515108904</v>
+        <v>1.014987797839162</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>0.9690408613802656</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3168,10 +3168,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>1.042716175449823</v>
+        <v>1.027835950240177</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>0.9828878688051517</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3179,10 +3179,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>1.039363376309099</v>
+        <v>1.023466839867985</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>0.9822774063331948</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3190,10 +3190,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>1.036855110781334</v>
+        <v>1.020210729371261</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0.9818095794951419</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3201,10 +3201,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>1.038235785594358</v>
+        <v>1.021984310058135</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>0.9820680690195105</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3212,10 +3212,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>1.034439627183769</v>
+        <v>1.017039379399462</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>0.9813495561942974</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3223,10 +3223,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>1.030103246585873</v>
+        <v>1.0114189441032</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0.9805029986157805</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3234,10 +3234,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>1.019545617526221</v>
+        <v>1</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>0.9783274974474621</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3245,10 +3245,10 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>1.015966915951634</v>
+        <v>1.007266856164605</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>0.9919269188930459</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3256,10 +3256,10 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>1.009110392271962</v>
+        <v>1</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>0.9904130058445866</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3267,10 +3267,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>1.003834978156111</v>
+        <v>1</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>0.9892039778660865</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3278,10 +3278,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1.000635233562317</v>
+        <v>1.001989337322242</v>
       </c>
       <c r="C264">
-        <v>0.9950106252049679</v>
+        <v>0.9953411027983206</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="C265">
-        <v>0.9862719994845863</v>
+        <v>0.9842177684224769</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>0.9833501832150481</v>
+        <v>0.9805061606796772</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3311,10 +3311,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>1.012710826968199</v>
       </c>
       <c r="C267">
-        <v>0.9761860109438617</v>
+        <v>0.9872943807455113</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3322,10 +3322,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>1.010470114395741</v>
       </c>
       <c r="C268">
-        <v>0.967535560030466</v>
+        <v>0.9764355709584388</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3333,10 +3333,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>1.009857692889142</v>
       </c>
       <c r="C269">
-        <v>0.9652193607497032</v>
+        <v>0.9735301741767717</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3344,10 +3344,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>1.007048318459461</v>
       </c>
       <c r="C270">
-        <v>0.9548511105087596</v>
+        <v>0.9604860899960974</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3355,10 +3355,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>1.021966625155472</v>
       </c>
       <c r="C271">
-        <v>0.950763419691943</v>
+        <v>0.9723583624873454</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3366,10 +3366,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>1.021965924722669</v>
       </c>
       <c r="C272">
-        <v>0.9507547849206874</v>
+        <v>0.9723630447506382</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3377,10 +3377,10 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>1.02194935750677</v>
       </c>
       <c r="C273">
-        <v>0.9506947032894822</v>
+        <v>0.9722871575888333</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3388,10 +3388,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>1.021807267993335</v>
       </c>
       <c r="C274">
-        <v>0.9501776595889033</v>
+        <v>0.9716398455226408</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3399,10 +3399,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>1.022789154810601</v>
       </c>
       <c r="C275">
-        <v>0.9537975052626768</v>
+        <v>0.9760979890381302</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3410,10 +3410,10 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>1.023557937024967</v>
       </c>
       <c r="C276">
-        <v>0.9566630171947847</v>
+        <v>0.9796244578764427</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3421,10 +3421,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>1.02290115235866</v>
       </c>
       <c r="C277">
-        <v>0.954215191489292</v>
+        <v>0.976607076576294</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3432,10 +3432,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>1.025118092239807</v>
       </c>
       <c r="C278">
-        <v>0.9625658840105192</v>
+        <v>0.986885105198703</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3443,10 +3443,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>1.00884167485927</v>
       </c>
       <c r="C279">
-        <v>0.9614366154917617</v>
+        <v>0.9687391656363399</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3454,10 +3454,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>1.026076645998943</v>
       </c>
       <c r="C280">
-        <v>0.9662587166244653</v>
+        <v>0.9914117805437814</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3465,10 +3465,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>1.009854278445226</v>
       </c>
       <c r="C281">
-        <v>0.965231220914088</v>
+        <v>0.9734758357415781</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3476,10 +3476,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>1.011239009195582</v>
       </c>
       <c r="C282">
-        <v>0.9704957185254491</v>
+        <v>0.980080728721569</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3487,10 +3487,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>1.012951180772832</v>
       </c>
       <c r="C283">
-        <v>0.9771631764009809</v>
+        <v>0.9884237229599937</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3498,10 +3498,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>1.014864633660228</v>
       </c>
       <c r="C284">
-        <v>0.9848356921117972</v>
+        <v>0.9980113701512996</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>1.000718013522665</v>
       </c>
       <c r="C285">
-        <v>0.9897843798455978</v>
+        <v>0.9885823126348888</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3520,10 +3520,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>1.001256978492762</v>
+        <v>1.002561070172015</v>
       </c>
       <c r="C286">
-        <v>0.9974565360702209</v>
+        <v>0.9983061473050002</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3531,10 +3531,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>1.001306144862058</v>
+        <v>1.002604099861106</v>
       </c>
       <c r="C287">
-        <v>0.9976382308792546</v>
+        <v>0.9985396158808897</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>1.001959266174554</v>
+        <v>1.003184614105931</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>1.004610065043185</v>
+        <v>1.007375975207682</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -3564,10 +3564,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>1.011827524292642</v>
+        <v>1.001774143051715</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>0.991013397474533</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3575,10 +3575,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>1.007691203598123</v>
+        <v>1</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>0.9900843861107291</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3586,10 +3586,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>1.012368038966797</v>
+        <v>1.002465482852018</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>0.9911329041123994</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3597,10 +3597,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>1.005882830118513</v>
+        <v>1</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>0.9896719185260168</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3608,10 +3608,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>1.009461917246391</v>
+        <v>1</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>0.9904847124140158</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3619,10 +3619,10 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>1.006473078240254</v>
+        <v>1</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>0.9898067353182307</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3630,10 +3630,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>1.012296158312264</v>
+        <v>1.002364062138506</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>0.9911166147255037</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3641,10 +3641,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>1.006340039808645</v>
+        <v>1</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>0.9897762825217</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3652,10 +3652,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>1.01174463863157</v>
+        <v>1.001663529673588</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>0.9909948330466058</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3663,10 +3663,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1.012135799276118</v>
+        <v>1.002169857642802</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>0.9910816647537083</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3674,10 +3674,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>1.007670322497364</v>
+        <v>1</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>0.9900795120789776</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3685,10 +3685,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>1.011841578536042</v>
+        <v>1.001786280311472</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>0.9910162490140095</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3696,10 +3696,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>1.012574222227434</v>
+        <v>1.002732686649145</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>0.991178545390992</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3707,10 +3707,10 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>1.011063421389368</v>
+        <v>1.000781240834793</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>0.9908431131327542</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3718,10 +3718,10 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>1.009412026057531</v>
+        <v>1</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>0.9904732617367803</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3729,10 +3729,10 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>1.012456749976567</v>
+        <v>1.002560382101204</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>0.991151666927107</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3740,10 +3740,10 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>1.0130982196936</v>
+        <v>1.003382657633988</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>0.9912930311334016</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3751,10 +3751,10 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>1.015206114146576</v>
+        <v>1.006109903164582</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>0.9917548576961107</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3762,10 +3762,10 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>1.014593419526607</v>
+        <v>1.005330603516075</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>0.9916217794104266</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3773,10 +3773,10 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>1.013978593214069</v>
+        <v>1.004543431915785</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>0.991487542248084</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3784,10 +3784,10 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>1.012125779644988</v>
+        <v>1.002147558274886</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>0.9910790298112471</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3795,10 +3795,10 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>1.019448368952471</v>
+        <v>1.011579714947289</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>0.9926657555849526</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3806,10 +3806,10 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>1.016771756499333</v>
+        <v>1.008148815470673</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>0.992094589611247</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3817,10 +3817,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>1.015943960115794</v>
+        <v>1.007112169334035</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>0.991917018348856</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3828,10 +3828,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>1.01715757923328</v>
+        <v>1.008694081742977</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>0.9921794361754176</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3839,10 +3839,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>1.016467361396011</v>
+        <v>1.007821216092444</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>0.9920314807375645</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3850,10 +3850,10 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>1.013459384237259</v>
+        <v>1.00396668954874</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>0.9913775488815446</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3861,10 +3861,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>1.012002888359453</v>
+        <v>1.002130326856119</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>0.9910580457675627</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3872,10 +3872,10 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>1.009353771980627</v>
+        <v>1</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>0.9904678074552729</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3883,10 +3883,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>1.013021297756735</v>
+        <v>1.003504781545256</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>0.9912855943589436</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3894,10 +3894,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>1.015783980350533</v>
+        <v>1.007064918102448</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>0.9918886636515563</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3905,10 +3905,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>1.016654497761947</v>
+        <v>1.00821166313794</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>0.9920775714154305</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3916,10 +3916,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>1.018478723698218</v>
+        <v>1.010556861091878</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>0.992467933655902</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3927,10 +3927,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>1.02525948608913</v>
+        <v>1.019275592549512</v>
       </c>
       <c r="C323">
-        <v>1</v>
+        <v>0.9938801295202403</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3938,10 +3938,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>1.023451501625786</v>
+        <v>1.002864887538615</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>0.9791535020432344</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3949,10 +3949,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>1.029977060743509</v>
+        <v>1.025345655341477</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>0.99482591196349</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3960,10 +3960,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>1.03257654886272</v>
+        <v>1.014709065720542</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>0.9809907407610539</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3971,10 +3971,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>1.041239775540789</v>
+        <v>1.025949791800057</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>0.9826214539261906</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3982,10 +3982,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>1.045528312750439</v>
+        <v>1.031511892872361</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>0.983386407374663</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3993,10 +3993,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>1.04979513605286</v>
+        <v>1.023727904160089</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>0.9701960726453434</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4004,10 +4004,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>1.051340190835283</v>
+        <v>1.025745781515675</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>0.9704537378127733</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4015,10 +4015,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>1.055169122720793</v>
+        <v>1.03075216498263</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>0.9710748373405093</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4026,10 +4026,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>1.060683471787461</v>
+        <v>1.037956422674493</v>
       </c>
       <c r="C332">
-        <v>1</v>
+        <v>0.9719250373547024</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4037,10 +4037,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>1.058560613835262</v>
+        <v>1.035186239693482</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>0.9716039526015098</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4048,10 +4048,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>1.061467489156099</v>
+        <v>1.038977674204811</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>0.9720416575224909</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4059,10 +4059,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>1.065277663290764</v>
+        <v>1.043957699604224</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>0.9725924236439818</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4070,10 +4070,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>1.061637378704617</v>
+        <v>1.039214801900538</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>0.9720664319283405</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4081,10 +4081,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>1.064610863974718</v>
+        <v>1.043106430453059</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>0.9724973854133746</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4092,10 +4092,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>1.062083484932726</v>
+        <v>1.039822693764737</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>0.9721315450579174</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4103,10 +4103,10 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>1.061119266633362</v>
+        <v>1.038546190132138</v>
       </c>
       <c r="C339">
-        <v>1</v>
+        <v>0.9719895160883155</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4114,10 +4114,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>1.061812832830532</v>
+        <v>1.039459414424303</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>0.9720919620589272</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4125,10 +4125,10 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>1.058872976257514</v>
+        <v>1.035629036751028</v>
       </c>
       <c r="C341">
-        <v>1</v>
+        <v>0.9716510397318494</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4136,10 +4136,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>1.055627217622148</v>
+        <v>1.031388988609956</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>0.971146933599933</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4147,10 +4147,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>1.055222981332894</v>
+        <v>1.03086187252299</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>0.9710828625269703</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4158,10 +4158,10 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>1.054204463152445</v>
+        <v>1.029524824265791</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>0.9709202998379872</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4169,10 +4169,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>1.052865852706201</v>
+        <v>1.027754130568</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>0.9707040677750913</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4180,10 +4180,10 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>1.04796832331077</v>
+        <v>1.021346334555127</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>0.9698862682676725</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4191,10 +4191,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>1.046588497699817</v>
+        <v>1.019533908440011</v>
       </c>
       <c r="C347">
-        <v>1</v>
+        <v>0.969648647198404</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4202,10 +4202,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>1.042443857114453</v>
+        <v>1.014099619054896</v>
       </c>
       <c r="C348">
-        <v>1</v>
+        <v>0.9689159958988877</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4213,10 +4213,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>1.03988080652258</v>
+        <v>1.024171381752115</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>0.9823730112842862</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4224,10 +4224,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>1.042088009642334</v>
+        <v>1.027014688491817</v>
       </c>
       <c r="C350">
-        <v>1</v>
+        <v>0.9827748048372114</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4235,10 +4235,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>1.03777869861958</v>
+        <v>1.021424809293817</v>
       </c>
       <c r="C351">
-        <v>1</v>
+        <v>0.9819831195633473</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4246,10 +4246,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>1.037635994326763</v>
+        <v>1.021219260405993</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>0.9819561844662009</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4257,10 +4257,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>1.035895213944551</v>
+        <v>1.018953828112386</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>0.9816278874980655</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4268,10 +4268,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>1.029488279126352</v>
+        <v>1.010623494822125</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>0.9803807549484284</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4279,10 +4279,10 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>1.02723087666405</v>
+        <v>1.007685956392873</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>0.979926926435274</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4290,10 +4290,10 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>1.02071102260098</v>
+        <v>1</v>
       </c>
       <c r="C356">
-        <v>1</v>
+        <v>0.9785753696670088</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4301,10 +4301,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>1.018980580690809</v>
+        <v>1.011126207067835</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>0.9925718563032706</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4312,10 +4312,10 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>1.012948084414071</v>
+        <v>1.003383319738954</v>
       </c>
       <c r="C358">
-        <v>1</v>
+        <v>0.9912683165872211</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4323,10 +4323,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>1.005632685038151</v>
+        <v>1</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>0.9896224354286554</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4334,10 +4334,10 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>1.001277652540674</v>
+        <v>1</v>
       </c>
       <c r="C360">
-        <v>0.9974089158823006</v>
+        <v>0.9833733254141519</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>0.9863317479501459</v>
+        <v>0.984300297756968</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="C362">
-        <v>0.9772284299095221</v>
+        <v>0.9726960991892838</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4367,10 +4367,10 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>1.012278139071016</v>
       </c>
       <c r="C363">
-        <v>0.9744921782864787</v>
+        <v>0.9851696460503132</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4378,10 +4378,10 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>1.011474527727423</v>
       </c>
       <c r="C364">
-        <v>0.9713780100044326</v>
+        <v>0.9812571243979084</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4389,10 +4389,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>1.010041009450981</v>
       </c>
       <c r="C365">
-        <v>0.9659090348685292</v>
+        <v>0.974399644697714</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4400,10 +4400,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>1.007135056708323</v>
       </c>
       <c r="C366">
-        <v>0.9551629017715267</v>
+        <v>0.9608853928160033</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4411,10 +4411,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>1.022610263287161</v>
       </c>
       <c r="C367">
-        <v>0.9531389325692617</v>
+        <v>0.9752763526967914</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4422,10 +4422,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>1.021867437337121</v>
       </c>
       <c r="C368">
-        <v>0.9503993626634158</v>
+        <v>0.9719101279095594</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4433,10 +4433,10 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>1.021473830873473</v>
       </c>
       <c r="C369">
-        <v>0.9489656285565761</v>
+        <v>0.9701279411208562</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4444,10 +4444,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>1.021923656688319</v>
       </c>
       <c r="C370">
-        <v>0.9506001999146567</v>
+        <v>0.972171173976046</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4455,10 +4455,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>1.022499159864795</v>
       </c>
       <c r="C371">
-        <v>0.9527208648174673</v>
+        <v>0.9747799388127248</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4466,10 +4466,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>1.022805668984403</v>
       </c>
       <c r="C372">
-        <v>0.9538586304719695</v>
+        <v>0.9761735862234594</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4477,10 +4477,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>1.022530528101233</v>
       </c>
       <c r="C373">
-        <v>0.9528434162676584</v>
+        <v>0.9749139685005995</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4488,10 +4488,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>1.024693772366654</v>
       </c>
       <c r="C374">
-        <v>0.9609525370690191</v>
+        <v>0.9848902215165729</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4499,10 +4499,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>1</v>
+        <v>1.024563880976662</v>
       </c>
       <c r="C375">
-        <v>0.9604593659500833</v>
+        <v>0.9842833924047479</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4510,10 +4510,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>1.026728872792922</v>
       </c>
       <c r="C376">
-        <v>0.9687954638815788</v>
+        <v>0.9945317865126433</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4521,10 +4521,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>1.009432835529064</v>
       </c>
       <c r="C377">
-        <v>0.963649902003377</v>
+        <v>0.9714900692882824</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4532,10 +4532,10 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>1.012894381380434</v>
       </c>
       <c r="C378">
-        <v>0.9769323271109839</v>
+        <v>0.9881558444633132</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4543,10 +4543,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>1.012935727919174</v>
       </c>
       <c r="C379">
-        <v>0.9771015179467136</v>
+        <v>0.9883487012382995</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4554,10 +4554,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>1.015248644319172</v>
       </c>
       <c r="C380">
-        <v>0.986401211167708</v>
+        <v>0.999981920508369</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4565,10 +4565,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>1.000661524669649</v>
       </c>
       <c r="C381">
-        <v>0.9895587814714348</v>
+        <v>0.9882779155634066</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4576,10 +4576,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>1.001167714492329</v>
       </c>
       <c r="C382">
-        <v>0.9916362758037657</v>
+        <v>0.9909107472045086</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4587,10 +4587,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>1.000931293756923</v>
+        <v>1.002275293929142</v>
       </c>
       <c r="C383">
-        <v>0.9962531218696432</v>
+        <v>0.9967631924100849</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4598,7 +4598,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>1.004605199046016</v>
+        <v>1.007380103020072</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -4609,10 +4609,10 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>1.002534919708604</v>
+        <v>1</v>
       </c>
       <c r="C385">
-        <v>1</v>
+        <v>0.98884575764696</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4620,7 +4620,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>1.006873117890864</v>
+        <v>1.010228269621714</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -4631,10 +4631,10 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>1.010972333599942</v>
+        <v>1.000672028761803</v>
       </c>
       <c r="C387">
-        <v>1</v>
+        <v>0.9908231802619775</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4642,10 +4642,10 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>1.010647462471677</v>
+        <v>1.000253532446603</v>
       </c>
       <c r="C388">
-        <v>1</v>
+        <v>0.9907506811293254</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4653,10 +4653,10 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>1.010783327040429</v>
+        <v>1.00043514596338</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>0.9907813199526005</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4664,10 +4664,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>1.011539312550082</v>
+        <v>1.001395988935277</v>
       </c>
       <c r="C390">
-        <v>1</v>
+        <v>0.990949094497645</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4675,10 +4675,10 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>1.009447940155851</v>
+        <v>1</v>
       </c>
       <c r="C391">
-        <v>1</v>
+        <v>0.9904823528857197</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4686,10 +4686,10 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>1.009683203175175</v>
+        <v>1</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>0.9905348636861524</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4697,10 +4697,10 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>1.012308466786708</v>
+        <v>1.002383263723312</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>0.9911194855305829</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4708,10 +4708,10 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>1.014162800213474</v>
+        <v>1.004767461480535</v>
       </c>
       <c r="C394">
-        <v>1</v>
+        <v>0.9915273171076689</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4719,10 +4719,10 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>1.014136055463208</v>
+        <v>1.004732375444848</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>0.9915214373644334</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4730,10 +4730,10 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>1.010022291133182</v>
+        <v>1</v>
       </c>
       <c r="C396">
-        <v>1</v>
+        <v>0.9906104188625302</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4741,10 +4741,10 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>1.009585061229895</v>
+        <v>1</v>
       </c>
       <c r="C397">
-        <v>1</v>
+        <v>0.9905123283384325</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4752,10 +4752,10 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>1.010769631992806</v>
+        <v>1.000397084667959</v>
       </c>
       <c r="C398">
-        <v>1</v>
+        <v>0.9907773261038785</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4763,10 +4763,10 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>1.012252103857356</v>
+        <v>1.002294840914818</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>0.9911063150082583</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4774,10 +4774,10 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>1.012630835783718</v>
+        <v>1.002794407782718</v>
       </c>
       <c r="C400">
-        <v>1</v>
+        <v>0.9911905587560454</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4785,10 +4785,10 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>1.014395204706559</v>
+        <v>1.005063622543809</v>
       </c>
       <c r="C401">
-        <v>1</v>
+        <v>0.9915780062552151</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4796,10 +4796,10 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>1.011531433960319</v>
+        <v>1.001388793217537</v>
       </c>
       <c r="C402">
-        <v>1</v>
+        <v>0.9909474764865109</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4807,10 +4807,10 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>1.014074054661048</v>
+        <v>1.004650204688954</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>0.9915077679645612</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4818,10 +4818,10 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>1.017453613114294</v>
+        <v>1.008994672062114</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>0.9922399141122422</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4829,10 +4829,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>1.013899658127414</v>
+        <v>1.004428404051785</v>
       </c>
       <c r="C405">
-        <v>1</v>
+        <v>0.9914696836702503</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4840,10 +4840,10 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>1.011480717053356</v>
+        <v>1.001321547855651</v>
       </c>
       <c r="C406">
-        <v>1</v>
+        <v>0.9909361174979724</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4851,10 +4851,10 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>1.016782267045543</v>
+        <v>1.008165947773876</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>0.9920969924355905</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4862,10 +4862,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>1.016269694445946</v>
+        <v>1.007511909033155</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>0.9919866716232444</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4873,10 +4873,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>1.012039432989568</v>
+        <v>1.002088987102792</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>0.9910622358323603</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4884,10 +4884,10 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>1.019440234411104</v>
+        <v>1.0116185476691</v>
       </c>
       <c r="C410">
-        <v>1</v>
+        <v>0.9926657821443734</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4895,10 +4895,10 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>1.016133867269875</v>
+        <v>1.007393740602173</v>
       </c>
       <c r="C411">
-        <v>1</v>
+        <v>0.9919595520542984</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4906,10 +4906,10 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>1.014377137169298</v>
+        <v>1.005177010722347</v>
       </c>
       <c r="C412">
-        <v>1</v>
+        <v>0.9915797230678266</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4917,10 +4917,10 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>1.014382654060111</v>
+        <v>1.005206542342677</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>0.9915818524126565</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4928,10 +4928,10 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>1.009471380460301</v>
+        <v>1</v>
       </c>
       <c r="C414">
-        <v>1</v>
+        <v>0.9904944813776605</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4939,10 +4939,10 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>1.014923279650783</v>
+        <v>1.005944930130868</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>0.9917014128784571</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4950,10 +4950,10 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>1.013804448699743</v>
+        <v>1.004516897088045</v>
       </c>
       <c r="C416">
-        <v>1</v>
+        <v>0.9914576832061183</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4961,10 +4961,10 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>1.014778670312774</v>
+        <v>1.005796687752015</v>
       </c>
       <c r="C417">
-        <v>1</v>
+        <v>0.9916714739978787</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4972,10 +4972,10 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>1.017167973010928</v>
+        <v>1.008866635714117</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>0.9921876982841531</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4983,10 +4983,10 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>1.017936184412951</v>
+        <v>1.00987376997776</v>
       </c>
       <c r="C419">
-        <v>1</v>
+        <v>0.9923528231954275</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4994,10 +4994,10 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>1.023830171323783</v>
+        <v>1.017453118021185</v>
       </c>
       <c r="C420">
-        <v>1</v>
+        <v>0.9935880534929535</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5005,10 +5005,10 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>1.027562244237741</v>
+        <v>1.022247245443927</v>
       </c>
       <c r="C421">
-        <v>1</v>
+        <v>0.9943458358564415</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5016,10 +5016,10 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>1.035810271713673</v>
+        <v>1.018907894576317</v>
       </c>
       <c r="C422">
-        <v>1</v>
+        <v>0.9816126450728245</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5027,10 +5027,10 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>1.039859419117366</v>
+        <v>1.024165030805716</v>
       </c>
       <c r="C423">
-        <v>1</v>
+        <v>0.9823692642104802</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5038,10 +5038,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>1.042680942770089</v>
+        <v>1.027808594619007</v>
       </c>
       <c r="C424">
-        <v>1</v>
+        <v>0.9828816373109431</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5049,10 +5049,10 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>1.046047954630798</v>
+        <v>1.032183998925675</v>
       </c>
       <c r="C425">
-        <v>1</v>
+        <v>0.9834771542763546</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5060,10 +5060,10 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>1.051669263548633</v>
+        <v>1.02618480827612</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>0.9705080188258308</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5071,10 +5071,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>1.054146249445996</v>
+        <v>1.029423232181074</v>
       </c>
       <c r="C427">
-        <v>1</v>
+        <v>0.9709112589052897</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5082,10 +5082,10 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>1.058129128542404</v>
+        <v>1.034624407780493</v>
       </c>
       <c r="C428">
-        <v>1</v>
+        <v>0.9715377051503291</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5093,10 +5093,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>1.059205201496616</v>
+        <v>1.036025593524528</v>
       </c>
       <c r="C429">
-        <v>1</v>
+        <v>0.9717023155970115</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5104,10 +5104,10 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>1.063601673349648</v>
+        <v>1.04175556551677</v>
       </c>
       <c r="C430">
-        <v>1</v>
+        <v>0.972353656761726</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5115,10 +5115,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>1.06303133813484</v>
+        <v>1.041035629176585</v>
       </c>
       <c r="C431">
-        <v>1</v>
+        <v>0.9722705257576369</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5126,10 +5126,10 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>1.062336376637834</v>
+        <v>1.040119199856008</v>
       </c>
       <c r="C432">
-        <v>1</v>
+        <v>0.972169408827814</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5137,10 +5137,10 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>1.061840483943246</v>
+        <v>1.039477532133227</v>
       </c>
       <c r="C433">
-        <v>1</v>
+        <v>0.9720964426966251</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5148,10 +5148,10 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>1.064603181117542</v>
+        <v>1.043102971190749</v>
       </c>
       <c r="C434">
-        <v>1</v>
+        <v>0.9724961175968884</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5159,10 +5159,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>1.060629451173546</v>
+        <v>1.037922328824517</v>
       </c>
       <c r="C435">
-        <v>1</v>
+        <v>0.9719162013642417</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5170,10 +5170,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>1.05633288647323</v>
+        <v>1.032305991257414</v>
       </c>
       <c r="C436">
-        <v>1</v>
+        <v>0.9712581580585556</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5181,10 +5181,10 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>1.05657745525187</v>
+        <v>1.032637253681262</v>
       </c>
       <c r="C437">
-        <v>1</v>
+        <v>0.9712962995475494</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5192,10 +5192,10 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>1.057278936486922</v>
+        <v>1.033545257231053</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>0.9714057731396948</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5203,10 +5203,10 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>1.054731863165807</v>
+        <v>1.030225674893706</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>0.9710045902452593</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5214,10 +5214,10 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>1.051917348834329</v>
+        <v>1.026528079471291</v>
       </c>
       <c r="C440">
-        <v>1</v>
+        <v>0.9705487031491314</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5225,10 +5225,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>1.052107776601248</v>
+        <v>1.026780462811314</v>
       </c>
       <c r="C441">
-        <v>1</v>
+        <v>0.9705799562540606</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5236,10 +5236,10 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>1.049579115588243</v>
+        <v>1.023461574296291</v>
       </c>
       <c r="C442">
-        <v>1</v>
+        <v>0.970159636473567</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5247,10 +5247,10 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>1.046231216430317</v>
+        <v>1.01906949608128</v>
       </c>
       <c r="C443">
-        <v>1</v>
+        <v>0.9695865962992114</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5258,10 +5258,10 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>1.044882449289172</v>
+        <v>1.017289428814224</v>
       </c>
       <c r="C444">
-        <v>1</v>
+        <v>0.9693504740971882</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5269,10 +5269,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>1.04370489134099</v>
+        <v>1.015732981250975</v>
       </c>
       <c r="C445">
-        <v>1</v>
+        <v>0.9691418432908648</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5280,10 +5280,10 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>1.044463877764736</v>
+        <v>1.030091748304341</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>0.9831990950732168</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5291,10 +5291,10 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>1.039599981584227</v>
+        <v>1.010330909179911</v>
       </c>
       <c r="C447">
-        <v>1</v>
+        <v>0.968396831312677</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5302,10 +5302,10 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>1.035683894439241</v>
+        <v>1.018693696693992</v>
       </c>
       <c r="C448">
-        <v>1</v>
+        <v>0.9815879326180786</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5313,10 +5313,10 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>1.033830956376322</v>
+        <v>1.016265804775297</v>
       </c>
       <c r="C449">
-        <v>1</v>
+        <v>0.9812326511534758</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5324,10 +5324,10 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>1.033741333768461</v>
+        <v>1.016143498766873</v>
       </c>
       <c r="C450">
-        <v>1</v>
+        <v>0.9812152539390605</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5335,10 +5335,10 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>1.031113371504496</v>
+        <v>1.012729188875042</v>
       </c>
       <c r="C451">
-        <v>1</v>
+        <v>0.9807026775154581</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5346,10 +5346,10 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>1.0185976914758</v>
+        <v>1</v>
       </c>
       <c r="C452">
-        <v>1</v>
+        <v>0.9781242968954263</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5357,10 +5357,10 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>1.018157180832476</v>
+        <v>1.010085021539965</v>
       </c>
       <c r="C453">
-        <v>1</v>
+        <v>0.9923973092793763</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5368,10 +5368,10 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>1.011151962134418</v>
+        <v>1.001064505051646</v>
       </c>
       <c r="C454">
-        <v>1</v>
+        <v>0.9908704904918211</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5379,10 +5379,10 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>1.0029084196451</v>
+        <v>1</v>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>0.9889809315892747</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5390,10 +5390,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>1.001346499515925</v>
+        <v>1.002618096775539</v>
       </c>
       <c r="C456">
-        <v>0.9976615531231872</v>
+        <v>0.9987092732909171</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5401,10 +5401,10 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>1.000207600031019</v>
       </c>
       <c r="C457">
-        <v>0.9876779611132523</v>
+        <v>0.98601271340227</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="C458">
-        <v>0.9823824922006615</v>
+        <v>0.9792746650555982</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5423,10 +5423,10 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>1.012630225537708</v>
       </c>
       <c r="C459">
-        <v>0.9758688989540824</v>
+        <v>0.9868987868205238</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5434,10 +5434,10 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>1</v>
+        <v>1.011148741551903</v>
       </c>
       <c r="C460">
-        <v>0.9701232845972452</v>
+        <v>0.9796891662107615</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5445,10 +5445,10 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>1.009591524526998</v>
       </c>
       <c r="C461">
-        <v>0.9642236314434642</v>
+        <v>0.9722678833233144</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5456,10 +5456,10 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>1.007618559341446</v>
       </c>
       <c r="C462">
-        <v>0.9569261795324931</v>
+        <v>0.9630933512215243</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5467,10 +5467,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>1.023736692289996</v>
       </c>
       <c r="C463">
-        <v>0.9573246733793473</v>
+        <v>0.9804612342093814</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5478,10 +5478,10 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>1</v>
+        <v>1.022572980075021</v>
       </c>
       <c r="C464">
-        <v>0.9529916585870811</v>
+        <v>0.9751189020622677</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5489,10 +5489,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>1.022565821336914</v>
       </c>
       <c r="C465">
-        <v>0.9529689422396083</v>
+        <v>0.9750812937247482</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5500,10 +5500,10 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>1.021213563913214</v>
       </c>
       <c r="C466">
-        <v>0.9480066123005663</v>
+        <v>0.9689724053483388</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5511,10 +5511,10 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>1.02162286083915</v>
       </c>
       <c r="C467">
-        <v>0.9495030443321634</v>
+        <v>0.9708076692480544</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5522,10 +5522,10 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>1.02241632008062</v>
       </c>
       <c r="C468">
-        <v>0.9524158129716824</v>
+        <v>0.9744018659961617</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5533,10 +5533,10 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>1</v>
+        <v>1.023030448458462</v>
       </c>
       <c r="C469">
-        <v>0.9546974413678623</v>
+        <v>0.9771965261181338</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5544,10 +5544,10 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>1</v>
+        <v>1.024177222603654</v>
       </c>
       <c r="C470">
-        <v>0.958994227505037</v>
+        <v>0.9824858365758098</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5555,10 +5555,10 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>1.024844823930153</v>
       </c>
       <c r="C471">
-        <v>0.961524128545217</v>
+        <v>0.9856015827756663</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5566,10 +5566,10 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>1.025723606241343</v>
       </c>
       <c r="C472">
-        <v>0.9648986721009692</v>
+        <v>0.9897292123507087</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5577,10 +5577,10 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>1.011903411953549</v>
       </c>
       <c r="C473">
-        <v>0.9730545525419884</v>
+        <v>0.9833061438580304</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5588,10 +5588,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>1.011920101684001</v>
       </c>
       <c r="C474">
-        <v>0.9731193895593485</v>
+        <v>0.9833871922854214</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5599,10 +5599,10 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>1.012971010287505</v>
       </c>
       <c r="C475">
-        <v>0.9772419026217148</v>
+        <v>0.9885207786848939</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5610,10 +5610,10 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>1.01522676125273</v>
       </c>
       <c r="C476">
-        <v>0.9863116497968984</v>
+        <v>0.9998694017970503</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5621,10 +5621,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>1.000392036988052</v>
       </c>
       <c r="C477">
-        <v>0.988459989423053</v>
+        <v>0.9868880248736192</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5632,10 +5632,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>1.000523436768238</v>
+        <v>1.001909648020494</v>
       </c>
       <c r="C478">
-        <v>0.9947109296548493</v>
+        <v>0.9948337203842627</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5643,10 +5643,10 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>1.001883412520615</v>
+        <v>1.003114400967864</v>
       </c>
       <c r="C479">
-        <v>0.9998151780556765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5654,7 +5654,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>1.002249740295778</v>
+        <v>1.003440088982277</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -5665,7 +5665,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>1.004118037162142</v>
+        <v>1.006768338589864</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -5676,7 +5676,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>1.01108961788693</v>
+        <v>1.015581539446293</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -5687,10 +5687,10 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>1.01027859196941</v>
+        <v>1</v>
       </c>
       <c r="C483">
-        <v>1</v>
+        <v>0.9906686921480905</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5698,10 +5698,10 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>1.010971181384045</v>
+        <v>1.000663991091336</v>
       </c>
       <c r="C484">
-        <v>1</v>
+        <v>0.9908226241754163</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5709,10 +5709,10 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>1.012164412489808</v>
+        <v>1.002207430452993</v>
       </c>
       <c r="C485">
-        <v>1</v>
+        <v>0.991088032267143</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5720,10 +5720,10 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>1.010941689390508</v>
+        <v>1.000640073996182</v>
       </c>
       <c r="C486">
-        <v>1</v>
+        <v>0.9908166908987175</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5731,10 +5731,10 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>1.009144639192396</v>
+        <v>1</v>
       </c>
       <c r="C487">
-        <v>1</v>
+        <v>0.9904130418467613</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5742,10 +5742,10 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>1.008609599917415</v>
+        <v>1</v>
       </c>
       <c r="C488">
-        <v>1</v>
+        <v>0.9902923882870311</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5753,10 +5753,10 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>1.010979300032326</v>
+        <v>1.000682351277294</v>
       </c>
       <c r="C489">
-        <v>1</v>
+        <v>0.9908247949564624</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5764,10 +5764,10 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>1.008778507172016</v>
+        <v>1</v>
       </c>
       <c r="C490">
-        <v>1</v>
+        <v>0.9903308373961301</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5775,10 +5775,10 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>1.012039475354083</v>
+        <v>1.002031695122141</v>
       </c>
       <c r="C491">
-        <v>1</v>
+        <v>0.9910597024097477</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5786,10 +5786,10 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>1.008518829384497</v>
+        <v>1</v>
       </c>
       <c r="C492">
-        <v>1</v>
+        <v>0.9902720887754699</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5797,10 +5797,10 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>1.008606632583687</v>
+        <v>1</v>
       </c>
       <c r="C493">
-        <v>1</v>
+        <v>0.9902922937567815</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5808,10 +5808,10 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>1.010305051170553</v>
+        <v>1</v>
       </c>
       <c r="C494">
-        <v>1</v>
+        <v>0.990673146450968</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5819,10 +5819,10 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>1.010988751684892</v>
+        <v>1.000671738487858</v>
       </c>
       <c r="C495">
-        <v>1</v>
+        <v>0.9908258617265416</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5830,10 +5830,10 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>1.013958966651445</v>
+        <v>1.004510599021797</v>
       </c>
       <c r="C496">
-        <v>1</v>
+        <v>0.9914829246631829</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5841,10 +5841,10 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>1.009049839401304</v>
+        <v>1</v>
       </c>
       <c r="C497">
-        <v>1</v>
+        <v>0.9903916766747239</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5852,10 +5852,10 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>1.010774523999352</v>
+        <v>1.000402486413781</v>
       </c>
       <c r="C498">
-        <v>1</v>
+        <v>0.9907783768048301</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5863,10 +5863,10 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>1.012676366704669</v>
+        <v>1.002855125763303</v>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>0.9912007020678407</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5874,10 +5874,10 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>1.010721761325959</v>
+        <v>1.000340840730554</v>
       </c>
       <c r="C500">
-        <v>1</v>
+        <v>0.9907668877060541</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5885,10 +5885,10 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>1.014073453266429</v>
+        <v>1.004674891772781</v>
       </c>
       <c r="C501">
-        <v>1</v>
+        <v>0.9915087049833208</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5896,10 +5896,10 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>1.013907426993151</v>
+        <v>1.004444805070249</v>
       </c>
       <c r="C502">
-        <v>1</v>
+        <v>0.9914716561278165</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5907,10 +5907,10 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>1.016841262825164</v>
+        <v>1.008229836092381</v>
       </c>
       <c r="C503">
-        <v>1</v>
+        <v>0.9921092282173085</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5918,10 +5918,10 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>1.015119838532594</v>
+        <v>1.006037468064451</v>
       </c>
       <c r="C504">
-        <v>1</v>
+        <v>0.9917376654694349</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5929,10 +5929,10 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>1.021110951716133</v>
+        <v>1.013744929976626</v>
       </c>
       <c r="C505">
-        <v>1</v>
+        <v>0.9930169318118903</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5940,10 +5940,10 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>1.018184825104374</v>
+        <v>1.009982012267835</v>
       </c>
       <c r="C506">
-        <v>1</v>
+        <v>0.9923981077564845</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5951,10 +5951,10 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>1.018281401900234</v>
+        <v>1.010124124477223</v>
       </c>
       <c r="C507">
-        <v>1</v>
+        <v>0.9924193734466279</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5962,10 +5962,10 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>1.018463431051762</v>
+        <v>1.010396781485525</v>
       </c>
       <c r="C508">
-        <v>1</v>
+        <v>0.9924595833082696</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5973,10 +5973,10 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>1.016132541710024</v>
+        <v>1.007413404614118</v>
       </c>
       <c r="C509">
-        <v>1</v>
+        <v>0.9919601046954459</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5984,10 +5984,10 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>1.021581364291261</v>
+        <v>1.014444483220517</v>
       </c>
       <c r="C510">
-        <v>1</v>
+        <v>0.993118451870471</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5995,10 +5995,10 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>1.024243860847244</v>
+        <v>1.01787502176735</v>
       </c>
       <c r="C511">
-        <v>1</v>
+        <v>0.9936697809993875</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6006,10 +6006,10 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>1.020308025359544</v>
+        <v>1.012838504783846</v>
       </c>
       <c r="C512">
-        <v>1</v>
+        <v>0.9928525819252464</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6017,10 +6017,10 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>1.025575022988263</v>
+        <v>1.019620348090962</v>
       </c>
       <c r="C513">
-        <v>1</v>
+        <v>0.993942651890242</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6028,10 +6028,10 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>1.027346106252207</v>
+        <v>1.007880728657381</v>
       </c>
       <c r="C514">
-        <v>1</v>
+        <v>0.97995137386078</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6039,10 +6039,10 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>1.029510259949011</v>
+        <v>1.010692487027483</v>
       </c>
       <c r="C515">
-        <v>1</v>
+        <v>0.9803860208947401</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6050,10 +6050,10 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>1.026384351227723</v>
+        <v>1.006657404581174</v>
       </c>
       <c r="C516">
-        <v>1</v>
+        <v>0.9797567170676872</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6061,10 +6061,10 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>1.034906294526649</v>
+        <v>1.017726115804551</v>
       </c>
       <c r="C517">
-        <v>1</v>
+        <v>0.9814402407697541</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6072,10 +6072,10 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>1.034464654681009</v>
+        <v>1.017168060993486</v>
       </c>
       <c r="C518">
-        <v>1</v>
+        <v>0.981355860647621</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6083,10 +6083,10 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>1.033587224287172</v>
+        <v>1.016038648177929</v>
       </c>
       <c r="C519">
-        <v>1</v>
+        <v>0.9811870655954125</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6094,10 +6094,10 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>1.038642849583964</v>
+        <v>1.022616582188383</v>
       </c>
       <c r="C520">
-        <v>1</v>
+        <v>0.9821448567324376</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6105,10 +6105,10 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>1.040186866949498</v>
+        <v>1.0246319924383</v>
       </c>
       <c r="C521">
-        <v>1</v>
+        <v>0.9824297017179815</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6116,10 +6116,10 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>1.040293036659715</v>
+        <v>1.024777613625556</v>
       </c>
       <c r="C522">
-        <v>1</v>
+        <v>0.9824492084076208</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6127,10 +6127,10 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>1.039770091538609</v>
+        <v>1.024118847549491</v>
       </c>
       <c r="C523">
-        <v>1</v>
+        <v>0.9823534382675678</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6138,10 +6138,10 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>1.040178854588936</v>
+        <v>1.024662285564441</v>
       </c>
       <c r="C524">
-        <v>1</v>
+        <v>0.9824285571855643</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6149,10 +6149,10 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>1.041881014978328</v>
+        <v>1.026858638503238</v>
       </c>
       <c r="C525">
-        <v>1</v>
+        <v>0.9827380901205708</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6160,10 +6160,10 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>1.044453477071881</v>
+        <v>1.03021261003298</v>
       </c>
       <c r="C526">
-        <v>1</v>
+        <v>0.9831976018032467</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6171,10 +6171,10 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>1.042579017801489</v>
+        <v>1.01438210394329</v>
       </c>
       <c r="C527">
-        <v>1</v>
+        <v>0.9689406840990722</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6182,10 +6182,10 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>1.045796580489984</v>
+        <v>1.031966407687816</v>
       </c>
       <c r="C528">
-        <v>1</v>
+        <v>0.9834333887620617</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6193,10 +6193,10 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>1.045531651638115</v>
+        <v>1.018261213299044</v>
       </c>
       <c r="C529">
-        <v>1</v>
+        <v>0.9694644366768346</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6204,10 +6204,10 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>1.045700427526639</v>
+        <v>1.018481446320219</v>
       </c>
       <c r="C530">
-        <v>1</v>
+        <v>0.9694939428231323</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6215,10 +6215,10 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>1.04791066089745</v>
+        <v>1.021375485432965</v>
       </c>
       <c r="C531">
-        <v>1</v>
+        <v>0.9698760023088119</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6226,10 +6226,10 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>1.044206018257336</v>
+        <v>1.016516998566239</v>
       </c>
       <c r="C532">
-        <v>1</v>
+        <v>0.9692310578127639</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6237,10 +6237,10 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>1.046610032262599</v>
+        <v>1.019669876519165</v>
       </c>
       <c r="C533">
-        <v>1</v>
+        <v>0.9696521594645485</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6248,10 +6248,10 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>1.042802264759765</v>
+        <v>1.014673199174081</v>
       </c>
       <c r="C534">
-        <v>1</v>
+        <v>0.9689807775721949</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6259,10 +6259,10 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>1.043417588807144</v>
+        <v>1.028868705003162</v>
       </c>
       <c r="C535">
-        <v>1</v>
+        <v>0.9830138338831412</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6270,10 +6270,10 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>1.040658456590371</v>
+        <v>1.025275419176059</v>
       </c>
       <c r="C536">
-        <v>1</v>
+        <v>0.9825161731984391</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6281,10 +6281,10 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>1.040677563199651</v>
+        <v>1.02528456529828</v>
       </c>
       <c r="C537">
-        <v>1</v>
+        <v>0.98251954504926</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6292,10 +6292,10 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>1.037382433490931</v>
+        <v>1.021008549940375</v>
       </c>
       <c r="C538">
-        <v>1</v>
+        <v>0.9819100494821756</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6303,10 +6303,10 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>1.035475796259864</v>
+        <v>1.018524561363903</v>
       </c>
       <c r="C539">
-        <v>1</v>
+        <v>0.98154975913644</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6314,10 +6314,10 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>1.035898011173474</v>
+        <v>1.019061772221572</v>
       </c>
       <c r="C540">
-        <v>1</v>
+        <v>0.9816298438574255</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6325,10 +6325,10 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>1.03174169514504</v>
+        <v>1.013674063757876</v>
       </c>
       <c r="C541">
-        <v>1</v>
+        <v>0.9808285913886255</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6336,10 +6336,10 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>1.026707262042669</v>
+        <v>1.007121857541854</v>
       </c>
       <c r="C542">
-        <v>1</v>
+        <v>0.9798235685222887</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6347,10 +6347,10 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>1.026625978656643</v>
+        <v>1.006985889874327</v>
       </c>
       <c r="C543">
-        <v>1</v>
+        <v>0.9798062770277203</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6358,10 +6358,10 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>1.022686307730552</v>
+        <v>1.00187015001231</v>
       </c>
       <c r="C544">
-        <v>1</v>
+        <v>0.9789939702990422</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6369,10 +6369,10 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>1.021920838620691</v>
+        <v>1.014982826230943</v>
       </c>
       <c r="C545">
-        <v>1</v>
+        <v>0.9931925191374192</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6380,10 +6380,10 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>1.017481686105316</v>
+        <v>1.009265641084869</v>
       </c>
       <c r="C546">
-        <v>1</v>
+        <v>0.9922547707854757</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6391,10 +6391,10 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>1.013001199881679</v>
+        <v>1.003497923841541</v>
       </c>
       <c r="C547">
-        <v>1</v>
+        <v>0.9912819831886948</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6402,10 +6402,10 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>1.008343174973286</v>
+        <v>1</v>
       </c>
       <c r="C548">
-        <v>1</v>
+        <v>0.9902425691308941</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6413,10 +6413,10 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>1.002355480262285</v>
+        <v>1</v>
       </c>
       <c r="C549">
-        <v>1</v>
+        <v>0.9886135412571533</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6424,7 +6424,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>1.002232069999004</v>
+        <v>1.003392992634415</v>
       </c>
       <c r="C550">
         <v>1</v>
@@ -6435,10 +6435,10 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>1.00067798832418</v>
       </c>
       <c r="C551">
-        <v>0.9895832937041593</v>
+        <v>0.9884591890389064</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="C552">
-        <v>0.9824358602844055</v>
+        <v>0.9793592592894882</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6457,10 +6457,10 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>1.012571129486103</v>
       </c>
       <c r="C553">
-        <v>0.9756308573244142</v>
+        <v>0.9866194237541405</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6468,10 +6468,10 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>1.01023345803489</v>
       </c>
       <c r="C554">
-        <v>0.9666225982482569</v>
+        <v>0.9753344181032718</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6479,10 +6479,10 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>1.008370229813598</v>
       </c>
       <c r="C555">
-        <v>0.9596685474669687</v>
+        <v>0.9665826598771031</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6490,10 +6490,10 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>1</v>
+        <v>1.024048113048503</v>
       </c>
       <c r="C556">
-        <v>0.9584854191826958</v>
+        <v>0.981917692592457</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6501,10 +6501,10 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>1</v>
+        <v>1.02338635783825</v>
       </c>
       <c r="C557">
-        <v>0.9560038269947561</v>
+        <v>0.9788583403186374</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6512,10 +6512,10 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>1</v>
+        <v>1.020741887085221</v>
       </c>
       <c r="C558">
-        <v>0.946290448173407</v>
+        <v>0.9668684457580429</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6523,10 +6523,10 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>1</v>
+        <v>1.019558423790782</v>
       </c>
       <c r="C559">
-        <v>0.9420349412812612</v>
+        <v>0.9616251711297926</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6534,10 +6534,10 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>1</v>
+        <v>1.02011501412179</v>
       </c>
       <c r="C560">
-        <v>0.9440260808778774</v>
+        <v>0.9640864610324715</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6545,10 +6545,10 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>1.01859833423974</v>
       </c>
       <c r="C561">
-        <v>0.9386297744926271</v>
+        <v>0.9574133021636263</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6556,10 +6556,10 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>1.034065817645832</v>
       </c>
       <c r="C562">
-        <v>0.9343917161011105</v>
+        <v>0.9701251734549917</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6567,10 +6567,10 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>1.035622645879027</v>
       </c>
       <c r="C563">
-        <v>0.9400279205480624</v>
+        <v>0.9769388505350741</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6578,10 +6578,10 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>1</v>
+        <v>1.020453858924405</v>
       </c>
       <c r="C564">
-        <v>0.9452560388512243</v>
+        <v>0.9655781055475874</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6589,10 +6589,10 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>1</v>
+        <v>1.02077320614306</v>
       </c>
       <c r="C565">
-        <v>0.9464085854038594</v>
+        <v>0.9670022941194241</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6600,10 +6600,10 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>1</v>
+        <v>1.020262361794336</v>
       </c>
       <c r="C566">
-        <v>0.9445740501938749</v>
+        <v>0.964717933479899</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6611,10 +6611,10 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>1.022221288376495</v>
       </c>
       <c r="C567">
-        <v>0.9517072362404981</v>
+        <v>0.9735022633180412</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6622,10 +6622,10 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>1.024002385684158</v>
       </c>
       <c r="C568">
-        <v>0.9583377993702789</v>
+        <v>0.981670695802611</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6633,10 +6633,10 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>1.025532371588279</v>
       </c>
       <c r="C569">
-        <v>0.9641577619850383</v>
+        <v>0.9888317883945844</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6644,10 +6644,10 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>1.009268056005479</v>
       </c>
       <c r="C570">
-        <v>0.9630333232573719</v>
+        <v>0.9707179542515065</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6655,10 +6655,10 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>1.011649246666194</v>
       </c>
       <c r="C571">
-        <v>0.9720782829376541</v>
+        <v>0.982058908947585</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6666,10 +6666,10 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>1</v>
+        <v>1.014301703101767</v>
       </c>
       <c r="C572">
-        <v>0.9825482948091946</v>
+        <v>0.995168742519932</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6677,10 +6677,10 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>1</v>
+        <v>1.014892009177026</v>
       </c>
       <c r="C573">
-        <v>0.9849420022792156</v>
+        <v>0.9981615750570745</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6688,10 +6688,10 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>1</v>
+        <v>1.000871424049887</v>
       </c>
       <c r="C574">
-        <v>0.9904139865108252</v>
+        <v>0.989375367759339</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6699,10 +6699,10 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>1.000951753280417</v>
+        <v>1.002289666229013</v>
       </c>
       <c r="C575">
-        <v>0.9963072758001369</v>
+        <v>0.996856276639322</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6710,10 +6710,10 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>1.001758924698207</v>
+        <v>1.003006097140821</v>
       </c>
       <c r="C576">
-        <v>0.9993538619641744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6721,10 +6721,10 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>1.001898590594732</v>
+        <v>1.003131253682037</v>
       </c>
       <c r="C577">
-        <v>0.9998930024443486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6732,7 +6732,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>1.008317231345149</v>
+        <v>1.012051471046188</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -6743,10 +6743,10 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>1.005316163403139</v>
+        <v>1</v>
       </c>
       <c r="C579">
-        <v>1</v>
+        <v>0.9895414986269226</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6754,10 +6754,10 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>1.00821966607749</v>
+        <v>1</v>
       </c>
       <c r="C580">
-        <v>1</v>
+        <v>0.9902047169485316</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6765,10 +6765,10 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>1.009212119593198</v>
+        <v>1</v>
       </c>
       <c r="C581">
-        <v>1</v>
+        <v>0.9904290945194435</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6776,10 +6776,10 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>1.008164437770039</v>
+        <v>1</v>
       </c>
       <c r="C582">
-        <v>1</v>
+        <v>0.9901914964859514</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6787,10 +6787,10 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>1.010842279636682</v>
+        <v>1.000501742855817</v>
       </c>
       <c r="C583">
-        <v>1</v>
+        <v>0.9907940473423491</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6798,10 +6798,10 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>1.007077452428678</v>
+        <v>1</v>
       </c>
       <c r="C584">
-        <v>1</v>
+        <v>0.9899449621398148</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6809,10 +6809,10 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>1.007450679839484</v>
+        <v>1</v>
       </c>
       <c r="C585">
-        <v>1</v>
+        <v>0.990030011302941</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6820,10 +6820,10 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>1.009565418138942</v>
+        <v>1</v>
       </c>
       <c r="C586">
-        <v>1</v>
+        <v>0.9905080840272904</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6831,10 +6831,10 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>1.011910777876043</v>
+        <v>1.001868282749434</v>
       </c>
       <c r="C587">
-        <v>1</v>
+        <v>0.9910312789062437</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6842,10 +6842,10 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>1.013610679125847</v>
+        <v>1.004062279115551</v>
       </c>
       <c r="C588">
-        <v>1</v>
+        <v>0.9914065521715426</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6853,10 +6853,10 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>1.011770611161342</v>
+        <v>1.001701574295602</v>
       </c>
       <c r="C589">
-        <v>1</v>
+        <v>0.9910008025606019</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6864,10 +6864,10 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>1.011131966045382</v>
+        <v>1.000857670017835</v>
       </c>
       <c r="C590">
-        <v>1</v>
+        <v>0.9908578450131336</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6875,10 +6875,10 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>1.009579178999465</v>
+        <v>1</v>
       </c>
       <c r="C591">
-        <v>1</v>
+        <v>0.9905107896329874</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6886,10 +6886,10 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>1.010530321129498</v>
+        <v>1.000097465226945</v>
       </c>
       <c r="C592">
-        <v>1</v>
+        <v>0.9907242676701629</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6897,10 +6897,10 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>1.012578496891887</v>
+        <v>1.002724303643712</v>
       </c>
       <c r="C593">
-        <v>1</v>
+        <v>0.9911788817057686</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6908,10 +6908,10 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>1.010888273291753</v>
+        <v>1.000545007260913</v>
       </c>
       <c r="C594">
-        <v>1</v>
+        <v>0.9908035766254756</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6919,10 +6919,10 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>1.012480005249948</v>
+        <v>1.002608508397126</v>
       </c>
       <c r="C595">
-        <v>1</v>
+        <v>0.9911576050636014</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6930,10 +6930,10 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>1.013933451904302</v>
+        <v>1.004484323593202</v>
       </c>
       <c r="C596">
-        <v>1</v>
+        <v>0.9914776119074823</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6941,10 +6941,10 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>1.011611480281606</v>
+        <v>1.0014887860356</v>
       </c>
       <c r="C597">
-        <v>1</v>
+        <v>0.9909651214166448</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6952,10 +6952,10 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>1.013518158592308</v>
+        <v>1.003938571832731</v>
       </c>
       <c r="C598">
-        <v>1</v>
+        <v>0.9913860409854569</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6963,10 +6963,10 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>1.016482259610244</v>
+        <v>1.007762813125082</v>
       </c>
       <c r="C599">
-        <v>1</v>
+        <v>0.9920316687887333</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6974,10 +6974,10 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>1.022252331889107</v>
+        <v>1.015186772705098</v>
       </c>
       <c r="C600">
-        <v>1</v>
+        <v>0.9932543830821439</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6985,10 +6985,10 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>1.021245656041359</v>
+        <v>1.013907024293774</v>
       </c>
       <c r="C601">
-        <v>1</v>
+        <v>0.9930447737516689</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6996,10 +6996,10 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>1.026435413680026</v>
+        <v>1.020566027483814</v>
       </c>
       <c r="C602">
-        <v>1</v>
+        <v>0.9941127799626941</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7007,10 +7007,10 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>1.024736197767854</v>
+        <v>1.004317383742595</v>
       </c>
       <c r="C603">
-        <v>1</v>
+        <v>0.9794133846986369</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7018,10 +7018,10 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>1.03033566974238</v>
+        <v>1.011601682995529</v>
       </c>
       <c r="C604">
-        <v>1</v>
+        <v>0.9805465715702876</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7029,10 +7029,10 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>1.035420024909327</v>
+        <v>1.018208134802853</v>
       </c>
       <c r="C605">
-        <v>1</v>
+        <v>0.981535614673584</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7040,10 +7040,10 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>1.032132343079941</v>
+        <v>1.013955392525214</v>
       </c>
       <c r="C606">
-        <v>1</v>
+        <v>0.9809007989433026</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7051,10 +7051,10 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>1.033547567675112</v>
+        <v>1.01580378899699</v>
       </c>
       <c r="C607">
-        <v>1</v>
+        <v>0.9811763151011867</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7062,10 +7062,10 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>1.037038021510671</v>
+        <v>1.02033889082032</v>
       </c>
       <c r="C608">
-        <v>1</v>
+        <v>0.9818426494805227</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7073,10 +7073,10 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>1.041798514400947</v>
+        <v>1.026527357311109</v>
       </c>
       <c r="C609">
-        <v>1</v>
+        <v>0.9827217969666798</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7084,10 +7084,10 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>1.046520828930514</v>
+        <v>1.032651993164782</v>
       </c>
       <c r="C610">
-        <v>1</v>
+        <v>0.9835593384289919</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7095,10 +7095,10 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>1.042763079828517</v>
+        <v>1.014410764283159</v>
       </c>
       <c r="C611">
-        <v>1</v>
+        <v>0.9689730519649107</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7106,10 +7106,10 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>1.042869530943114</v>
+        <v>1.027964365771144</v>
       </c>
       <c r="C612">
-        <v>1</v>
+        <v>0.9829150242029185</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7117,10 +7117,10 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>1.044194086172493</v>
+        <v>1.029723200944223</v>
       </c>
       <c r="C613">
-        <v>1</v>
+        <v>0.9831512933267968</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7128,10 +7128,10 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>1.042728430580874</v>
+        <v>1.014443692218242</v>
       </c>
       <c r="C614">
-        <v>1</v>
+        <v>0.9689670993813078</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7139,10 +7139,10 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>1.043898918205868</v>
+        <v>1.029380407396029</v>
       </c>
       <c r="C615">
-        <v>1</v>
+        <v>0.9830990626821733</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7150,10 +7150,10 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>1.041910971021416</v>
+        <v>1.013408883559848</v>
       </c>
       <c r="C616">
-        <v>1</v>
+        <v>0.9688197992335463</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7161,10 +7161,10 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>1.039158594844742</v>
+        <v>1.023287334379563</v>
       </c>
       <c r="C617">
-        <v>1</v>
+        <v>0.9822403882905764</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7172,10 +7172,10 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>1.041488155144076</v>
+        <v>1.026323916190286</v>
       </c>
       <c r="C618">
-        <v>1</v>
+        <v>0.982666864672037</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7183,10 +7183,10 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>1.034850659365561</v>
+        <v>1.017750610570279</v>
       </c>
       <c r="C619">
-        <v>1</v>
+        <v>0.9814310322868675</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7194,10 +7194,10 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>1.036450168295293</v>
+        <v>1.019848829214125</v>
       </c>
       <c r="C620">
-        <v>1</v>
+        <v>0.9817352646107793</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7205,10 +7205,10 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>1.02924928858413</v>
+        <v>1.010538258467889</v>
       </c>
       <c r="C621">
-        <v>1</v>
+        <v>0.9803380091790055</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7216,10 +7216,10 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>1.032737899665512</v>
+        <v>1.015089189331979</v>
       </c>
       <c r="C622">
-        <v>1</v>
+        <v>0.981025104373958</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7227,10 +7227,10 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>1.029112254821765</v>
+        <v>1.010394819129299</v>
       </c>
       <c r="C623">
-        <v>1</v>
+        <v>0.9803114199233739</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7238,10 +7238,10 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>1.029545537059388</v>
+        <v>1.010980090264366</v>
       </c>
       <c r="C624">
-        <v>1</v>
+        <v>0.9803982247111059</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7249,10 +7249,10 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>1.026979010440354</v>
+        <v>1.007664817057912</v>
       </c>
       <c r="C625">
-        <v>1</v>
+        <v>0.979883395540593</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7260,10 +7260,10 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>1.019571018026204</v>
+        <v>1</v>
       </c>
       <c r="C626">
-        <v>1</v>
+        <v>0.978343902343634</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7271,10 +7271,10 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>1.020762417206658</v>
+        <v>1.013729521303026</v>
       </c>
       <c r="C627">
-        <v>1</v>
+        <v>0.9929582229203758</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7282,10 +7282,10 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>1.021105576515394</v>
+        <v>1.014170761056546</v>
       </c>
       <c r="C628">
-        <v>1</v>
+        <v>0.9930300269143475</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7293,10 +7293,10 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>1.018740966295755</v>
+        <v>1.011129072022344</v>
       </c>
       <c r="C629">
-        <v>1</v>
+        <v>0.9925319530944684</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7304,10 +7304,10 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>1.022208200813176</v>
+        <v>1.015564819137969</v>
       </c>
       <c r="C630">
-        <v>1</v>
+        <v>0.9932589427646419</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7315,10 +7315,10 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>1.025272942048303</v>
+        <v>1.019488164512177</v>
       </c>
       <c r="C631">
-        <v>1</v>
+        <v>0.9938882596211941</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7326,10 +7326,10 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>1.026134887691473</v>
+        <v>1.006515222985595</v>
       </c>
       <c r="C632">
-        <v>1</v>
+        <v>0.979710516867665</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7337,10 +7337,10 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>1.02238680677108</v>
+        <v>1.001620046100338</v>
       </c>
       <c r="C633">
-        <v>1</v>
+        <v>0.9789355313843696</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7348,10 +7348,10 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>1.027453403874589</v>
+        <v>1.022224899278938</v>
       </c>
       <c r="C634">
-        <v>1</v>
+        <v>0.9943269450089135</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7359,10 +7359,10 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>1.026903015498462</v>
+        <v>1.007445913110917</v>
       </c>
       <c r="C635">
-        <v>1</v>
+        <v>0.9798650520684741</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7370,10 +7370,10 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>1.027215399648781</v>
+        <v>1.00784296851397</v>
       </c>
       <c r="C636">
-        <v>1</v>
+        <v>0.9799281405506529</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7381,10 +7381,10 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>1.032251420397615</v>
+        <v>1.014340581636648</v>
       </c>
       <c r="C637">
-        <v>1</v>
+        <v>0.9809283309117832</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7392,10 +7392,10 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>1.029840355974944</v>
+        <v>1.011184293979938</v>
       </c>
       <c r="C638">
-        <v>1</v>
+        <v>0.9804530597244602</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7403,10 +7403,10 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>1.031475913091571</v>
+        <v>1.013292729673977</v>
       </c>
       <c r="C639">
-        <v>1</v>
+        <v>0.9807757840869025</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7414,10 +7414,10 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>1.028400748668392</v>
+        <v>1.009281385425312</v>
       </c>
       <c r="C640">
-        <v>1</v>
+        <v>0.9801647401400445</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7425,10 +7425,10 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>1.025376283781439</v>
+        <v>1.005353641607095</v>
       </c>
       <c r="C641">
-        <v>1</v>
+        <v>0.9795507476391653</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7436,10 +7436,10 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>1.027177550743624</v>
+        <v>1.007662787121128</v>
       </c>
       <c r="C642">
-        <v>1</v>
+        <v>0.9799172628786709</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7447,10 +7447,10 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>1.016851799490268</v>
+        <v>1</v>
       </c>
       <c r="C643">
-        <v>1</v>
+        <v>0.9777480007818279</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7458,10 +7458,10 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>1.02170682595526</v>
+        <v>1.014658435141193</v>
       </c>
       <c r="C644">
-        <v>1</v>
+        <v>0.9931463416919643</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7469,10 +7469,10 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>1.0121706043093</v>
+        <v>1.002395132367905</v>
       </c>
       <c r="C645">
-        <v>1</v>
+        <v>0.9910973064609655</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7480,10 +7480,10 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>1.012886157778335</v>
+        <v>1.00330305810626</v>
       </c>
       <c r="C646">
-        <v>1</v>
+        <v>0.9912546568058375</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7491,10 +7491,10 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>1.006519558527621</v>
+        <v>1</v>
       </c>
       <c r="C647">
-        <v>1</v>
+        <v>0.9898250361949872</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7502,10 +7502,10 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>1.003662831458429</v>
+        <v>1</v>
       </c>
       <c r="C648">
-        <v>1</v>
+        <v>0.9891624654121771</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7513,7 +7513,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>1.002573399232622</v>
+        <v>1.004731048768065</v>
       </c>
       <c r="C649">
         <v>1</v>
@@ -7524,10 +7524,10 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>1.00151369056372</v>
+        <v>1.002772292329144</v>
       </c>
       <c r="C650">
-        <v>0.9983278476363645</v>
+        <v>0.9995129774990602</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7535,10 +7535,10 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>1</v>
+        <v>1.000013133444287</v>
       </c>
       <c r="C651">
-        <v>0.9869049422613824</v>
+        <v>0.9849865634841291</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7549,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="C652">
-        <v>0.9794231333095378</v>
+        <v>0.9754526681626902</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7557,10 +7557,10 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>1</v>
+        <v>1.01207459795867</v>
       </c>
       <c r="C653">
-        <v>0.9737140266427867</v>
+        <v>0.9841494224960238</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7568,10 +7568,10 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>1</v>
+        <v>1.010846872465946</v>
       </c>
       <c r="C654">
-        <v>0.9689859561872325</v>
+        <v>0.9782104381983993</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7579,10 +7579,10 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>1</v>
+        <v>1.010747672503345</v>
       </c>
       <c r="C655">
-        <v>0.9686056907361992</v>
+        <v>0.9777384191866871</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7590,10 +7590,10 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>1</v>
+        <v>1.009638703624145</v>
       </c>
       <c r="C656">
-        <v>0.964405367942872</v>
+        <v>0.9724828479197463</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7601,10 +7601,10 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>1</v>
+        <v>1.008813130503585</v>
       </c>
       <c r="C657">
-        <v>0.9613287128117004</v>
+        <v>0.9686090428758684</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7612,10 +7612,10 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>1</v>
+        <v>1.023680157477622</v>
       </c>
       <c r="C658">
-        <v>0.9571217805225561</v>
+        <v>0.9801872458512668</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7623,10 +7623,10 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>1</v>
+        <v>1.024351366579972</v>
       </c>
       <c r="C659">
-        <v>0.9596505749731398</v>
+        <v>0.9832981012134261</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7634,10 +7634,10 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>1</v>
+        <v>1.024039646850532</v>
       </c>
       <c r="C660">
-        <v>0.9584830424374221</v>
+        <v>0.9818365051109713</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7645,10 +7645,10 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>1</v>
+        <v>1.024929620724747</v>
       </c>
       <c r="C661">
-        <v>0.961845988046915</v>
+        <v>0.9860008527946116</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7656,10 +7656,10 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>1</v>
+        <v>1.008817315067871</v>
       </c>
       <c r="C662">
-        <v>0.961351797233568</v>
+        <v>0.9686174357909566</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7667,10 +7667,10 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>1</v>
+        <v>1.025656338052194</v>
       </c>
       <c r="C663">
-        <v>0.9646432770020301</v>
+        <v>0.9894049491276219</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7678,10 +7678,10 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>1</v>
+        <v>1.011267062139117</v>
       </c>
       <c r="C664">
-        <v>0.9705988054352338</v>
+        <v>0.9802236404778437</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7689,10 +7689,10 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>1</v>
+        <v>1.012141757016594</v>
       </c>
       <c r="C665">
-        <v>0.9739877355840015</v>
+        <v>0.9844556048573344</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7700,10 +7700,10 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>1</v>
+        <v>1.012499501479633</v>
       </c>
       <c r="C666">
-        <v>0.9753916502599729</v>
+        <v>0.9861937898150726</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7711,10 +7711,10 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>1</v>
+        <v>1.014651913472507</v>
       </c>
       <c r="C667">
-        <v>0.983963936278071</v>
+        <v>0.9969438355442568</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="C668">
-        <v>0.9846271870468045</v>
+        <v>0.9820325699339101</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7733,10 +7733,10 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>1</v>
+        <v>1.000033031296807</v>
       </c>
       <c r="C669">
-        <v>0.9870067056454357</v>
+        <v>0.9850424846934803</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7744,10 +7744,10 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>1.000081812523558</v>
+        <v>1.00151780518422</v>
       </c>
       <c r="C670">
-        <v>0.9930786077987621</v>
+        <v>0.992761545237816</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7755,7 +7755,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>1.001936272765566</v>
+        <v>1.003160384574946</v>
       </c>
       <c r="C671">
         <v>1</v>
@@ -7766,7 +7766,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>1.002537992303131</v>
+        <v>1.004561973769337</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -7777,7 +7777,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>1.005314697624382</v>
+        <v>1.008268149408724</v>
       </c>
       <c r="C673">
         <v>1</v>
